--- a/Income/FISV_inc.xlsx
+++ b/Income/FISV_inc.xlsx
@@ -2122,16 +2122,16 @@
         <v>0.4741</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4678</v>
+        <v>0.4647</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.461</v>
+        <v>0.4577</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4675</v>
+        <v>0.4637</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4835</v>
+        <v>0.4788</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4772</v>
@@ -2630,16 +2630,16 @@
         <v>0.226</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.2235</v>
+        <v>0.216</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.2301</v>
+        <v>0.2223</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.208</v>
+        <v>0.1989</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2147</v>
+        <v>0.2036</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.2158</v>
@@ -4219,16 +4219,16 @@
         <v>0.3356</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.3255</v>
+        <v>0.3167</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.3138</v>
+        <v>0.3046</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.3226</v>
+        <v>0.312</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.3454</v>
+        <v>0.3325</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.3497</v>
@@ -4346,16 +4346,16 @@
         <v>0.2866</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.2885</v>
+        <v>0.281</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.2994</v>
+        <v>0.2916</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.2777</v>
+        <v>0.2687</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.2855</v>
+        <v>0.2744</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.2844</v>
